--- a/laser_width/listoftests.xlsx
+++ b/laser_width/listoftests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rfguerreros/Documents/Academic/Purdue/purdue_laser_box/laser_width/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4DA976-3A23-D343-A3E6-38EDE4CEFB1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33729C-8F51-C14E-A468-CDC6A666A28E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{7DEE7D76-C5B3-B044-AB59-470FA073FE6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Parameters</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Laser up</t>
+  </si>
+  <si>
+    <t>Laser one to the right</t>
+  </si>
+  <si>
+    <t>Laser was not on</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B3450-48B0-494D-8AB4-EC184BD3FB7F}">
-  <dimension ref="A2:N38"/>
+  <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,6 +1519,239 @@
       <c r="M38" s="5"/>
       <c r="N38" s="1"/>
     </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F39" s="6">
+        <v>36</v>
+      </c>
+      <c r="G39" s="6">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6">
+        <v>100</v>
+      </c>
+      <c r="I39" s="6">
+        <v>100</v>
+      </c>
+      <c r="J39" s="6">
+        <v>3</v>
+      </c>
+      <c r="K39" s="6">
+        <v>60</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F40" s="6">
+        <v>37</v>
+      </c>
+      <c r="G40" s="6">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6">
+        <v>100</v>
+      </c>
+      <c r="I40" s="6">
+        <v>100</v>
+      </c>
+      <c r="J40" s="6">
+        <v>3</v>
+      </c>
+      <c r="K40" s="6">
+        <v>20</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F41" s="6">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6">
+        <v>100</v>
+      </c>
+      <c r="I41" s="6">
+        <v>100</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3</v>
+      </c>
+      <c r="K41" s="6">
+        <v>20</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F42" s="6">
+        <v>39</v>
+      </c>
+      <c r="G42" s="6">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6">
+        <v>100</v>
+      </c>
+      <c r="I42" s="6">
+        <v>100</v>
+      </c>
+      <c r="J42" s="6">
+        <v>3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>20</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F43" s="6">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6">
+        <v>100</v>
+      </c>
+      <c r="I43" s="6">
+        <v>100</v>
+      </c>
+      <c r="J43" s="6">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
+        <v>60</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F44" s="6">
+        <v>41</v>
+      </c>
+      <c r="G44" s="6">
+        <v>13</v>
+      </c>
+      <c r="H44" s="6">
+        <v>100</v>
+      </c>
+      <c r="I44" s="6">
+        <v>100</v>
+      </c>
+      <c r="J44" s="6">
+        <v>3</v>
+      </c>
+      <c r="K44" s="6">
+        <v>60</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F45" s="6">
+        <v>42</v>
+      </c>
+      <c r="G45" s="6">
+        <v>13</v>
+      </c>
+      <c r="H45" s="6">
+        <v>100</v>
+      </c>
+      <c r="I45" s="6">
+        <v>100</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3</v>
+      </c>
+      <c r="K45" s="6">
+        <v>60</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F46" s="6">
+        <v>43</v>
+      </c>
+      <c r="G46" s="6">
+        <v>14</v>
+      </c>
+      <c r="H46" s="6">
+        <v>100</v>
+      </c>
+      <c r="I46" s="6">
+        <v>100</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6">
+        <v>60</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F47" s="6">
+        <v>44</v>
+      </c>
+      <c r="G47" s="6">
+        <v>15</v>
+      </c>
+      <c r="H47" s="6">
+        <v>100</v>
+      </c>
+      <c r="I47" s="6">
+        <v>100</v>
+      </c>
+      <c r="J47" s="6">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6">
+        <v>60</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
